--- a/biology/Botanique/Mademoiselle_Eugénie_Verdier/Mademoiselle_Eugénie_Verdier.xlsx
+++ b/biology/Botanique/Mademoiselle_Eugénie_Verdier/Mademoiselle_Eugénie_Verdier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mademoiselle_Eug%C3%A9nie_Verdier</t>
+          <t>Mademoiselle_Eugénie_Verdier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Eugénie Verdier' est un cultivar de rosier obtenu en 1869 par le rosiériste lyonnais Guillot fils[1] qui le dédie à la fille de son confrère Eugène Verdier (1828-1902). Ce rosier est issu d'un semis 'Victor Verdier' (Lacharme, 1859). Il ne doit pas être confondu avec 'Mademoiselle Eugénie Verdier' (Schwarz, 1872)[2].
+'Mademoiselle Eugénie Verdier' est un cultivar de rosier obtenu en 1869 par le rosiériste lyonnais Guillot fils qui le dédie à la fille de son confrère Eugène Verdier (1828-1902). Ce rosier est issu d'un semis 'Victor Verdier' (Lacharme, 1859). Il ne doit pas être confondu avec 'Mademoiselle Eugénie Verdier' (Schwarz, 1872).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mademoiselle_Eug%C3%A9nie_Verdier</t>
+          <t>Mademoiselle_Eugénie_Verdier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un arbuste érigé vigoureux peu aiguillonné au feuillage vert pâle, s'élevant à 120 cm. Il présente des fleurs (9 à 10 cm) de couleur rose clair au cœur plus vif, dont les revers reflètent des nuances argentées. Ses fleurs exhalent un fort parfum[3]. Ce rosier donne des fruits pyriformes à l'automne. Son pied a besoin d'être protégé en hiver[4].
-Ce rosier délicat est rarement commercialisé aujourd'hui. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne. Il est sensible au froid, mais fleurit bien à l'automne[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un arbuste érigé vigoureux peu aiguillonné au feuillage vert pâle, s'élevant à 120 cm. Il présente des fleurs (9 à 10 cm) de couleur rose clair au cœur plus vif, dont les revers reflètent des nuances argentées. Ses fleurs exhalent un fort parfum. Ce rosier donne des fruits pyriformes à l'automne. Son pied a besoin d'être protégé en hiver.
+Ce rosier délicat est rarement commercialisé aujourd'hui. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne. Il est sensible au froid, mais fleurit bien à l'automne.
 </t>
         </is>
       </c>
